--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>instructText</t>
   </si>
@@ -23,10 +23,13 @@
     <t>Some people feel that the stories have natural “parts”.</t>
   </si>
   <si>
-    <t>You will press “1” if you think the sentence is the beginning of a new “part.”</t>
+    <t>You will press “9” if you think the sentence is the beginning of a new “part.”</t>
   </si>
   <si>
-    <t xml:space="preserve">You will press “9” if you think the sentence is in the same “part” as the sentence before. </t>
+    <t xml:space="preserve">For example you should press “9” at the beginning of a new story or when you think a different event is beginning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1312,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1365,7 +1368,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="68.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1376,8 +1379,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
+    <row r="6" ht="68.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>5</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1529,6 +1534,15 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -12,24 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>instructText</t>
   </si>
   <si>
-    <t xml:space="preserve">Additionally, while reading each story, you will also indicate when you think a new “part” of the story is beginning. </t>
+    <t xml:space="preserve">Good job! You’ve finished the pre-task quizzes. </t>
   </si>
   <si>
-    <t>Some people feel that the stories have natural “parts”.</t>
+    <t xml:space="preserve">You are about to begin the main task of reading the stories. </t>
   </si>
   <si>
-    <t>You will press “9” if you think the sentence is the beginning of a new “part.”</t>
+    <t xml:space="preserve">The stories will presented to you sentence by sentence, so you’ll read each sentence in the story individually. </t>
   </si>
   <si>
-    <t xml:space="preserve">For example you should press “9” at the beginning of a new story or when you think a different event is beginning. </t>
+    <t>Before reading each story, you’ll be assigned a perspective and then given a quiz like the ones you just took for that perspective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you’ve finished the quiz, you’ll begin reading the story, sentence by sentence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While reading the stories, you will additionally have to make a judgement about each sentence in order to advance to the next sentence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some people feel that the stories have natural “parts”: we want to know when you think the story has transitioned from one part to another. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will press “9” if you think the sentence you are reading has ended the previous part and has begun a new part of the story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, you should press “9” at the beginning of a new story or when you think a different event is beginning. </t>
   </si>
   <si>
     <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you press “1” or “9” you will advance to the next sentence. </t>
+  </si>
+  <si>
+    <t>Do you have any questions?</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1333,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1320,7 +1341,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.9453" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1335,7 +1357,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1346,7 +1368,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="56.05" customHeight="1">
+    <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
@@ -1357,7 +1379,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="68.05" customHeight="1">
+    <row r="4" ht="44.05" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
@@ -1368,7 +1390,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="92.05" customHeight="1">
+    <row r="5" ht="44.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1379,7 +1401,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="68.05" customHeight="1">
+    <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="7">
         <v>5</v>
       </c>
@@ -1390,8 +1412,10 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
+    <row r="7" ht="44.05" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>6</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1399,8 +1423,10 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
+    <row r="8" ht="44.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>7</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1408,8 +1434,10 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>8</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1417,8 +1445,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1426,8 +1456,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>10</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1435,8 +1467,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1445,7 +1479,9 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
+      <c r="A13" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1543,6 +1579,51 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">While reading the stories, you will additionally have to make a judgement about each sentence in order to advance to the next sentence. </t>
   </si>
   <si>
-    <t xml:space="preserve">Some people feel that the stories have natural “parts”: we want to know when you think the story has transitioned from one part to another. </t>
+    <t xml:space="preserve">Some people feel that the stories have natural “parts”: we want you to make a judgement about when you think the story has transitioned from one “part” to another. </t>
   </si>
   <si>
-    <t xml:space="preserve">You will press “9” if you think the sentence you are reading has ended the previous part and has begun a new part of the story. </t>
+    <t xml:space="preserve">You will press “9” if you think the sentence you are reading has ended the previous “part” and has begun a new “part” of the story. </t>
   </si>
   <si>
     <t xml:space="preserve">For example, you should press “9” at the beginning of a new story or when you think a different event is beginning. </t>
@@ -1423,7 +1423,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="44.05" customHeight="1">
+    <row r="8" ht="56.05" customHeight="1">
       <c r="A8" t="s" s="7">
         <v>7</v>
       </c>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instructText</t>
   </si>
@@ -50,6 +50,12 @@
     <t xml:space="preserve">When you press “1” or “9” you will advance to the next sentence. </t>
   </si>
   <si>
+    <t xml:space="preserve">You will not be able to go back to previous sentences, or change the judgement you made about a sentence. </t>
+  </si>
+  <si>
+    <t>Please use both index fingers during the story reading, with one resting on the “1” and the other on the “9.”</t>
+  </si>
+  <si>
     <t>Do you have any questions?</t>
   </si>
 </sst>
@@ -64,7 +70,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1333,7 +1339,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1342,7 +1348,12 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="41.9453" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1478,7 +1489,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" ht="44.05" customHeight="1">
       <c r="A13" t="s" s="7">
         <v>12</v>
       </c>
@@ -1489,8 +1500,10 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>13</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1499,7 +1512,9 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
+      <c r="A15" t="s" s="7">
+        <v>14</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1624,6 +1639,24 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -38,10 +38,10 @@
     <t xml:space="preserve">Some people feel that the stories have natural “parts”: we want you to make a judgement about when you think the story has transitioned from one “part” to another. </t>
   </si>
   <si>
-    <t xml:space="preserve">You will press “9” if you think the sentence you are reading has ended the previous “part” and has begun a new “part” of the story. </t>
+    <t xml:space="preserve">You will press “9” if you think the sentence you are reading has begun a new “part” of the story. </t>
   </si>
   <si>
-    <t xml:space="preserve">For example, you should press “9” at the beginning of a new story or when you think a different event is beginning. </t>
+    <t xml:space="preserve">For example, you should press “9” at the beginning of a new story or when you think a different “part” is beginning. </t>
   </si>
   <si>
     <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
@@ -70,7 +70,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1348,12 +1348,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="41.9453" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1445,7 +1440,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="44.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="7">
         <v>8</v>
       </c>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -17,7 +17,7 @@
     <t>instructText</t>
   </si>
   <si>
-    <t xml:space="preserve">Good job! You’ve finished the pre-task quizzes. </t>
+    <t xml:space="preserve">Good job! You’ve finished the pre-task quizzes. Please notify the researcher that you have finished. </t>
   </si>
   <si>
     <t xml:space="preserve">You are about to begin the main task of reading the stories. </t>
@@ -1363,7 +1363,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="44.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>instructText</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no “right” answers- we just want to see what you think these transitions are. </t>
   </si>
   <si>
     <t xml:space="preserve">When you press “1” or “9” you will advance to the next sentence. </t>
@@ -1339,7 +1342,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1484,7 +1487,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" ht="44.05" customHeight="1">
+    <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="7">
         <v>12</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" ht="44.05" customHeight="1">
       <c r="A15" t="s" s="7">
         <v>14</v>
       </c>
@@ -1518,7 +1521,9 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
+      <c r="A16" t="s" s="7">
+        <v>15</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1652,6 +1657,15 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">You will press “9” if you think the sentence you are reading has begun a new “part” of the story. </t>
   </si>
   <si>
-    <t xml:space="preserve">For example, you should press “9” at the beginning of a new story or when you think a different “part” is beginning. </t>
+    <t xml:space="preserve">For example, you should press “9” when you think a different “part” is beginning. </t>
   </si>
   <si>
     <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
@@ -1454,7 +1454,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="44.05" customHeight="1">
+    <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="7">
         <v>9</v>
       </c>

--- a/instructions_segment.xlsx
+++ b/instructions_segment.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">You will press “9” if you think the sentence you are reading has begun a new “part” of the story. </t>
   </si>
   <si>
-    <t xml:space="preserve">For example, you should press “9” when you think a different “part” is beginning. </t>
+    <t xml:space="preserve">For example, you should press “9” at the beginning of a story and when you think a different “part” is beginning. </t>
   </si>
   <si>
     <t xml:space="preserve">You will press “1” if you think the sentence is in the same “part” as the sentence before. </t>
@@ -73,7 +73,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1351,7 +1351,12 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="41.9453" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1454,7 +1459,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
